--- a/data/target_recipes.xlsx
+++ b/data/target_recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\projects\taxdata-psl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B6AAC8-C8DA-4CA5-8C57-7E90842EFEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ADC44E-CCD4-41EF-BB50-97D60C4FB5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="irs_downloads" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="514">
   <si>
     <t>table</t>
   </si>
@@ -558,16 +558,10 @@
     <t>E</t>
   </si>
   <si>
-    <t>nret_item</t>
-  </si>
-  <si>
     <t>Number of returns with itemized deductions</t>
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>item_ded</t>
   </si>
   <si>
     <t>Total itemized deductions</t>
@@ -1651,6 +1645,84 @@
   </si>
   <si>
     <t>startrow</t>
+  </si>
+  <si>
+    <t>unempcomp</t>
+  </si>
+  <si>
+    <t>nret_unempcomp</t>
+  </si>
+  <si>
+    <t>Number of returns with unemployment compensation</t>
+  </si>
+  <si>
+    <t>Unemployment compensation</t>
+  </si>
+  <si>
+    <t>nret_partnerpinc</t>
+  </si>
+  <si>
+    <t>partnerinc</t>
+  </si>
+  <si>
+    <t>nret_partnerloss</t>
+  </si>
+  <si>
+    <t>partnerloss</t>
+  </si>
+  <si>
+    <t>Number of returns with partnership net income</t>
+  </si>
+  <si>
+    <t>Partnership net income</t>
+  </si>
+  <si>
+    <t>Number of returns with partnership net loss</t>
+  </si>
+  <si>
+    <t>Partnership net loss</t>
+  </si>
+  <si>
+    <t>partnership and scorp split in 2021</t>
+  </si>
+  <si>
+    <t>scorpinc</t>
+  </si>
+  <si>
+    <t>nret_scorploss</t>
+  </si>
+  <si>
+    <t>scorploss</t>
+  </si>
+  <si>
+    <t>Number of returns with S corporation net income</t>
+  </si>
+  <si>
+    <t>S corporation net income</t>
+  </si>
+  <si>
+    <t>Number of returns with S corporation net loss</t>
+  </si>
+  <si>
+    <t>S corporation net loss</t>
+  </si>
+  <si>
+    <t>nret_qbid</t>
+  </si>
+  <si>
+    <t>qbid</t>
+  </si>
+  <si>
+    <t>Number of returns with Qualified Business Income Deduction</t>
+  </si>
+  <si>
+    <t>Qualified Business Income Deduction</t>
+  </si>
+  <si>
+    <t>nret_scorpinc</t>
+  </si>
+  <si>
+    <t>vname</t>
   </si>
 </sst>
 </file>
@@ -1844,8 +1916,8 @@
       <xdr:rowOff>139404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>29773</xdr:rowOff>
     </xdr:to>
@@ -1888,8 +1960,8 @@
       <xdr:rowOff>104528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>312421</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464821</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>160989</xdr:rowOff>
     </xdr:to>
@@ -1937,8 +2009,8 @@
       <xdr:rowOff>18611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>147563</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>467603</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>121081</xdr:rowOff>
     </xdr:to>
@@ -1981,8 +2053,8 @@
       <xdr:rowOff>65898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>358491</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68931</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -2021,6 +2093,539 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>29388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>197276</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>52988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3643C0-1411-40F3-A4FB-FD711678EAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="24901068"/>
+          <a:ext cx="11596796" cy="1486640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>144610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297992</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>178657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E24526-0378-4F2E-9E6E-B80E2524508B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23004610"/>
+          <a:ext cx="13556792" cy="1862847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60961</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>84318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601981</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>58121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2567CAD-F805-424D-8909-084EC9DA3023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60961" y="25504638"/>
+          <a:ext cx="14409420" cy="1802603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>137100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>412292</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>25353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52CC6BD-0887-4E97-8757-B04614C19DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28117740"/>
+          <a:ext cx="14280692" cy="1899933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>25534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>77906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06462BF7-C7DA-42AD-A277-0BB8CE12505D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30200734"/>
+          <a:ext cx="7901940" cy="3527092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>119738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>172735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419A98B5-EAB8-4878-A13C-4DC781D2A434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33952538"/>
+          <a:ext cx="10850880" cy="3527717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>100390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>110685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8744DE01-A78A-45D9-BD43-FDEF04494AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15499080" y="22045990"/>
+          <a:ext cx="11201400" cy="3119255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>119290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>191550</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>153050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D86226-2336-446B-8D07-64759F73388C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15499080" y="25173850"/>
+          <a:ext cx="10105170" cy="2776960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>112078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>376201</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>178273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23747020-00DD-499D-A3B8-3F4DE7402833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15544800" y="28092718"/>
+          <a:ext cx="11463301" cy="2626515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>206528</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>68159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85CC1BE-EA51-42D9-A157-5965940FB4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16200120" y="32918400"/>
+          <a:ext cx="17884928" cy="2628479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>78430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>478774</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>49691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B494299-138F-453D-847F-F84B2670D007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16154400" y="35740030"/>
+          <a:ext cx="6010894" cy="2348701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>159279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>193402</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>157575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBEEB42-9352-4FC0-B813-DA10B139D9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16207740" y="39478479"/>
+          <a:ext cx="15425782" cy="3290136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2113,7 +2718,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3167,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -3182,7 +3787,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
@@ -3193,7 +3798,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -3205,7 +3810,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
@@ -3213,10 +3818,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -3228,10 +3833,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -3239,10 +3844,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -3254,7 +3859,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.3">
@@ -3262,10 +3867,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -3277,10 +3882,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3829,10 +4434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D7A5D-02D8-4436-AE45-CC0DD5660F86}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3840,25 +4445,26 @@
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -3868,9 +4474,9 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
@@ -3880,12 +4486,12 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
@@ -3894,13 +4500,16 @@
         <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -3918,7 +4527,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>141</v>
       </c>
@@ -3936,7 +4545,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>144</v>
       </c>
@@ -3954,7 +4563,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>147</v>
       </c>
@@ -3983,7 +4592,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3991,25 +4600,26 @@
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B2" s="2">
         <v>9</v>
@@ -4019,9 +4629,9 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B3" s="2">
         <v>28</v>
@@ -4031,12 +4641,12 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
@@ -4045,13 +4655,16 @@
         <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -4069,7 +4682,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>141</v>
       </c>
@@ -4087,7 +4700,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>144</v>
       </c>
@@ -4105,7 +4718,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>153</v>
       </c>
@@ -4120,12 +4733,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4138,30 +4751,30 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>159</v>
+        <v>394</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11">
         <v>1000</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4171,79 +4784,79 @@
         <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13">
         <v>1000</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15">
         <v>1000</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -4261,22 +4874,22 @@
         <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
         <v>149</v>
@@ -4294,18 +4907,18 @@
       </c>
       <c r="D19" s="19"/>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4315,22 +4928,22 @@
         <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21">
         <v>1000</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
         <v>150</v>
@@ -4338,108 +4951,108 @@
     </row>
     <row r="22" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23">
         <v>1000</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C25">
         <v>1000</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4450,74 +5063,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160F9713-946D-4B96-B17B-71BE4C427E7B}">
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B3" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
@@ -4526,13 +5134,13 @@
         <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>464</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4542,1216 +5150,1512 @@
       <c r="B6" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8">
         <v>1000</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="18">
+        <v>244</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="C12">
         <v>1000</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C14">
         <v>1000</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C16">
         <v>1000</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C20">
         <v>1000</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C22">
         <v>1000</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C30">
         <v>1000</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="E31" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C32">
         <v>1000</v>
       </c>
+      <c r="E32" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C34">
         <v>1000</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="E35" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C36">
         <v>1000</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
+      <c r="E37" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C38">
         <v>1000</v>
       </c>
+      <c r="E38" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>305</v>
+        <v>492</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>306</v>
+        <v>496</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
+      <c r="E43" s="15"/>
       <c r="F43" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>307</v>
+        <v>493</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>308</v>
+        <v>497</v>
       </c>
       <c r="C44">
         <v>1000</v>
       </c>
+      <c r="E44" s="15"/>
       <c r="F44" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>309</v>
+        <v>494</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>310</v>
+        <v>498</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
+      <c r="E45" s="15"/>
       <c r="F45" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>311</v>
+        <v>495</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>312</v>
+        <v>499</v>
       </c>
       <c r="C46">
         <v>1000</v>
       </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F47" s="2" t="s">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F48" s="2" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C50">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F49" s="2" t="s">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
+      </c>
+      <c r="C52">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C54">
         <v>1000</v>
       </c>
+      <c r="E54" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>331</v>
+        <v>489</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>332</v>
+        <v>490</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
+      <c r="E55" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>334</v>
+        <v>488</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="C56">
         <v>1000</v>
       </c>
+      <c r="E56" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>393</v>
+        <v>323</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
+      <c r="E57" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="C58">
         <v>1000</v>
       </c>
+      <c r="E58" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
+      <c r="E59" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>154</v>
+        <v>333</v>
       </c>
       <c r="C60">
         <v>1000</v>
       </c>
+      <c r="E60" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
+      <c r="E61" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>410</v>
+        <v>158</v>
       </c>
       <c r="C62">
         <v>1000</v>
       </c>
+      <c r="E62" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="F62" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F63" s="19"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64">
+        <v>1000</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F64" s="19"/>
+    </row>
+    <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="C68">
+        <v>1000</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>1000</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-      <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
-      <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
-      <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
-      <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
-      <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
-      <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
-      <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
-      <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
-      <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
-      <c r="L121" s="2"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
-      <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="L123" s="2"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K123" s="2"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
-      <c r="L126" s="2"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
-      <c r="L127" s="2"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
-      <c r="L128" s="2"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
-      <c r="L129" s="2"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
-      <c r="L130" s="2"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L131" s="2"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L132" s="2"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L133" s="2"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L134" s="2"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L135" s="2"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L136" s="2"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L137" s="2"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L138" s="2"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L139" s="2"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L140" s="2"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L141" s="2"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L142" s="2"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L143" s="2"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L144" s="2"/>
-    </row>
-    <row r="145" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L145" s="2"/>
-    </row>
-    <row r="146" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L146" s="2"/>
-    </row>
-    <row r="147" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L147" s="2"/>
-    </row>
-    <row r="148" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L148" s="2"/>
-    </row>
-    <row r="149" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L149" s="2"/>
-    </row>
-    <row r="150" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L150" s="2"/>
-    </row>
-    <row r="151" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L151" s="2"/>
-    </row>
-    <row r="152" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L152" s="2"/>
-    </row>
-    <row r="153" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L153" s="2"/>
-    </row>
-    <row r="154" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L154" s="2"/>
-    </row>
-    <row r="155" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L155" s="2"/>
-    </row>
-    <row r="156" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L156" s="2"/>
-    </row>
-    <row r="157" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L157" s="2"/>
-    </row>
-    <row r="158" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L158" s="2"/>
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K146" s="2"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K150" s="2"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K152" s="2"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K153" s="2"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K154" s="2"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K156" s="2"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K157" s="2"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K158" s="2"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K159" s="2"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K160" s="2"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K161" s="2"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K166" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K12:Q66">
-    <sortCondition ref="Q12:Q66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J8:P74">
+    <sortCondition ref="P8:P74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5759,8 +6663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0531E3B2-59F3-4C51-ACDB-98FDFE2EB357}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5775,22 +6679,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>469</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -5805,7 +6709,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
@@ -5820,10 +6724,10 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
@@ -5832,13 +6736,13 @@
         <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -5935,10 +6839,10 @@
   <dimension ref="A1:F357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E224" sqref="B78:E224"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6154,10 +7058,10 @@
         <v>155</v>
       </c>
       <c r="C14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -6168,13 +7072,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -6188,10 +7092,10 @@
         <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6202,13 +7106,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E17">
         <v>1000</v>
@@ -6219,13 +7123,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -6236,13 +7140,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -6253,13 +7157,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -6287,13 +7191,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -6304,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
         <v>124</v>
@@ -6324,10 +7228,10 @@
         <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -6338,13 +7242,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -6366,10 +7270,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -6377,10 +7281,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -6388,10 +7292,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -6399,10 +7303,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -6410,10 +7314,10 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -6421,10 +7325,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -6432,10 +7336,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -6443,10 +7347,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -6454,10 +7358,10 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -6465,10 +7369,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -6476,13 +7380,13 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -6493,13 +7397,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E38">
         <v>1000</v>
@@ -6510,10 +7414,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -6521,10 +7425,10 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -6532,10 +7436,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -6543,10 +7447,10 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -6554,10 +7458,10 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -6565,10 +7469,10 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -6576,10 +7480,10 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -6587,10 +7491,10 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -6598,10 +7502,10 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -6609,10 +7513,10 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -6620,10 +7524,10 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -6631,13 +7535,13 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -6648,13 +7552,13 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="E51">
         <v>1000</v>
@@ -6665,10 +7569,10 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -6676,10 +7580,10 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -6687,10 +7591,10 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -6698,10 +7602,10 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -6709,10 +7613,10 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -6720,10 +7624,10 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -6731,10 +7635,10 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -6742,10 +7646,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -6753,10 +7657,10 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -6764,10 +7668,10 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -6775,10 +7679,10 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -6786,13 +7690,13 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C63" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -6803,13 +7707,13 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C64" t="s">
-        <v>232</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="E64">
         <v>1000</v>
@@ -6820,10 +7724,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -6831,10 +7735,10 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -6842,10 +7746,10 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -6853,10 +7757,10 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -6864,10 +7768,10 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -6875,10 +7779,10 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -6886,10 +7790,10 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -6897,10 +7801,10 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -6908,10 +7812,10 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -6919,10 +7823,10 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C74" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -6930,10 +7834,10 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -7014,13 +7918,13 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -7034,10 +7938,10 @@
         <v>146</v>
       </c>
       <c r="C84" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E84">
         <v>1000</v>
@@ -7048,13 +7952,13 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -7065,13 +7969,13 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E86">
         <v>1000</v>
@@ -7082,13 +7986,13 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -7099,13 +8003,13 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E88">
         <v>1000</v>
@@ -7119,10 +8023,10 @@
         <v>149</v>
       </c>
       <c r="C89" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -7133,13 +8037,13 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E90">
         <v>1000</v>
@@ -7150,13 +8054,13 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -7170,10 +8074,10 @@
         <v>150</v>
       </c>
       <c r="C92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E92">
         <v>1000</v>
@@ -7184,10 +8088,10 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -7206,10 +8110,10 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -7217,10 +8121,10 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -7228,13 +8132,13 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -7242,13 +8146,13 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -7256,13 +8160,13 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -7270,13 +8174,13 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -7284,13 +8188,13 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -7298,13 +8202,13 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C102" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -7312,13 +8216,13 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -7329,13 +8233,13 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C104" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E104">
         <v>1000</v>
@@ -7346,13 +8250,13 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C105" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -7363,13 +8267,13 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E106">
         <v>1000</v>
@@ -7380,10 +8284,10 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -7391,10 +8295,10 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -7402,10 +8306,10 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -7413,10 +8317,10 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -7424,13 +8328,13 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -7441,13 +8345,13 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C112" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E112">
         <v>1000</v>
@@ -7458,13 +8362,13 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C113" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -7475,13 +8379,13 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E114">
         <v>1000</v>
@@ -7492,13 +8396,13 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -7509,13 +8413,13 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C116" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E116">
         <v>1000</v>
@@ -7526,10 +8430,10 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -7537,10 +8441,10 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C118" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -7548,10 +8452,10 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -7559,10 +8463,10 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -7570,10 +8474,10 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C121" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -7581,10 +8485,10 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -7592,10 +8496,10 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -7603,10 +8507,10 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -7614,10 +8518,10 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -7625,10 +8529,10 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C126" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -7636,10 +8540,10 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C127" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -7647,10 +8551,10 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -7658,13 +8562,13 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -7672,13 +8576,13 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C130" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -7686,13 +8590,13 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C131" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -7700,13 +8604,13 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C132" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -7714,13 +8618,13 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7731,13 +8635,13 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C134" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E134">
         <v>1000</v>
@@ -7748,13 +8652,13 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C135" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7765,13 +8669,13 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C136" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E136">
         <v>1000</v>
@@ -7782,13 +8686,13 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C137" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -7796,13 +8700,13 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C138" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -7810,13 +8714,13 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C139" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -7824,13 +8728,13 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C140" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -7838,10 +8742,10 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C141" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -7849,10 +8753,10 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -7860,10 +8764,10 @@
         <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C143" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -7871,10 +8775,10 @@
         <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C144" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -7882,13 +8786,13 @@
         <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C145" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D145" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -7896,13 +8800,13 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C146" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D146" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -7910,13 +8814,13 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
+        <v>322</v>
+      </c>
+      <c r="C147" t="s">
+        <v>323</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C147" t="s">
-        <v>325</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7927,13 +8831,13 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
+        <v>325</v>
+      </c>
+      <c r="C148" t="s">
+        <v>326</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C148" t="s">
-        <v>328</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E148">
         <v>1000</v>
@@ -7944,13 +8848,13 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
+        <v>328</v>
+      </c>
+      <c r="C149" t="s">
+        <v>329</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C149" t="s">
-        <v>331</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7961,13 +8865,13 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
+        <v>331</v>
+      </c>
+      <c r="C150" t="s">
+        <v>332</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C150" t="s">
-        <v>334</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="E150">
         <v>1000</v>
@@ -7978,10 +8882,10 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C151" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -7989,10 +8893,10 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C152" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -8000,10 +8904,10 @@
         <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C153" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -8011,10 +8915,10 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C154" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -8022,10 +8926,10 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C155" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -8033,10 +8937,10 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C156" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -8044,10 +8948,10 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C157" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -8055,10 +8959,10 @@
         <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C158" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -8066,10 +8970,10 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C159" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -8077,10 +8981,10 @@
         <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C160" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -8088,10 +8992,10 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C161" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -8099,10 +9003,10 @@
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C162" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -8110,10 +9014,10 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C163" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -8121,10 +9025,10 @@
         <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C164" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -8132,10 +9036,10 @@
         <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C165" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -8143,10 +9047,10 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C166" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -8154,10 +9058,10 @@
         <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C167" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -8165,10 +9069,10 @@
         <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C168" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -8176,10 +9080,10 @@
         <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C169" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -8187,10 +9091,10 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C170" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -8198,10 +9102,10 @@
         <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C171" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -8209,10 +9113,10 @@
         <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C172" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -8220,10 +9124,10 @@
         <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C173" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -8231,10 +9135,10 @@
         <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C174" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -8242,10 +9146,10 @@
         <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C175" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -8253,10 +9157,10 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C176" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -8264,10 +9168,10 @@
         <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C177" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -8275,10 +9179,10 @@
         <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C178" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -8286,10 +9190,10 @@
         <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C179" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -8297,10 +9201,10 @@
         <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C180" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -8308,10 +9212,10 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C181" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -8319,10 +9223,10 @@
         <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C182" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -8330,10 +9234,10 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C183" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -8341,10 +9245,10 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C184" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -8352,10 +9256,10 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -8363,10 +9267,10 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -8374,10 +9278,10 @@
         <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -8385,10 +9289,10 @@
         <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -8396,10 +9300,10 @@
         <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -8407,10 +9311,10 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -8418,10 +9322,10 @@
         <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -8429,10 +9333,10 @@
         <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -8440,10 +9344,10 @@
         <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -8451,10 +9355,10 @@
         <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -8462,10 +9366,10 @@
         <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C195" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -8473,10 +9377,10 @@
         <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C196" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -8484,10 +9388,10 @@
         <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C197" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -8495,10 +9399,10 @@
         <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C198" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -8506,10 +9410,10 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C199" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -8517,10 +9421,10 @@
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -8528,10 +9432,10 @@
         <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C201" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -8539,10 +9443,10 @@
         <v>5</v>
       </c>
       <c r="B202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -8550,10 +9454,10 @@
         <v>5</v>
       </c>
       <c r="B203" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C203" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -8561,10 +9465,10 @@
         <v>5</v>
       </c>
       <c r="B204" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C204" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -8572,10 +9476,10 @@
         <v>5</v>
       </c>
       <c r="B205" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C205" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -8583,10 +9487,10 @@
         <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C206" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -8594,13 +9498,13 @@
         <v>5</v>
       </c>
       <c r="B207" t="s">
+        <v>390</v>
+      </c>
+      <c r="C207" t="s">
+        <v>391</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="C207" t="s">
-        <v>393</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -8611,13 +9515,13 @@
         <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C208" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E208">
         <v>1000</v>
@@ -8628,13 +9532,13 @@
         <v>5</v>
       </c>
       <c r="B209" t="s">
+        <v>395</v>
+      </c>
+      <c r="C209" t="s">
+        <v>396</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C209" t="s">
-        <v>398</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -8645,7 +9549,7 @@
         <v>5</v>
       </c>
       <c r="B210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C210" t="s">
         <v>153</v>
@@ -8662,10 +9566,10 @@
         <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -8673,10 +9577,10 @@
         <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C212" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -8684,10 +9588,10 @@
         <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -8695,10 +9599,10 @@
         <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C214" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -8706,13 +9610,13 @@
         <v>5</v>
       </c>
       <c r="B215" t="s">
+        <v>403</v>
+      </c>
+      <c r="C215" t="s">
+        <v>404</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C215" t="s">
-        <v>406</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -8723,13 +9627,13 @@
         <v>5</v>
       </c>
       <c r="B216" t="s">
+        <v>406</v>
+      </c>
+      <c r="C216" t="s">
+        <v>407</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C216" t="s">
-        <v>409</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="E216">
         <v>1000</v>
@@ -8740,10 +9644,10 @@
         <v>5</v>
       </c>
       <c r="B217" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C217" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -8751,10 +9655,10 @@
         <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C218" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -8762,13 +9666,13 @@
         <v>5</v>
       </c>
       <c r="B219" t="s">
+        <v>411</v>
+      </c>
+      <c r="C219" t="s">
+        <v>412</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C219" t="s">
-        <v>414</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -8776,13 +9680,13 @@
         <v>5</v>
       </c>
       <c r="B220" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C220" t="s">
         <v>109</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -8790,10 +9694,10 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C221" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -8801,10 +9705,10 @@
         <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C222" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -8812,10 +9716,10 @@
         <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C223" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -8823,10 +9727,10 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C224" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -8840,7 +9744,7 @@
         <v>69</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -8851,10 +9755,10 @@
         <v>140</v>
       </c>
       <c r="C227" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -8898,10 +9802,10 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -8920,10 +9824,10 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C233" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -8931,10 +9835,10 @@
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C234" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -8942,10 +9846,10 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C235" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -8953,10 +9857,10 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C236" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -8975,10 +9879,10 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C238" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -8986,10 +9890,10 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C239" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -9008,10 +9912,10 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C241" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -9030,10 +9934,10 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C243" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -9041,10 +9945,10 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C244" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -9052,10 +9956,10 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C245" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -9063,10 +9967,10 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C246" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -9074,10 +9978,10 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C247" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -9085,10 +9989,10 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C248" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -9096,10 +10000,10 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C249" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -9107,10 +10011,10 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C250" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -9118,10 +10022,10 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C251" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -9129,10 +10033,10 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C252" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -9140,10 +10044,10 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C253" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -9151,10 +10055,10 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C254" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -9162,10 +10066,10 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C255" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -9173,10 +10077,10 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C256" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -9184,10 +10088,10 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C257" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -9195,10 +10099,10 @@
         <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C258" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -9206,10 +10110,10 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C259" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -9217,10 +10121,10 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C260" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -9228,10 +10132,10 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C261" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -9239,10 +10143,10 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C262" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -9250,10 +10154,10 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C263" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -9261,10 +10165,10 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C264" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -9272,10 +10176,10 @@
         <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C265" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -9283,10 +10187,10 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C266" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -9294,10 +10198,10 @@
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C267" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -9305,10 +10209,10 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C268" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -9316,10 +10220,10 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C269" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -9327,10 +10231,10 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C270" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -9338,10 +10242,10 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C271" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -9349,10 +10253,10 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C272" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -9360,10 +10264,10 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C273" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -9371,10 +10275,10 @@
         <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C274" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -9382,10 +10286,10 @@
         <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C275" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -9393,10 +10297,10 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C276" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -9404,10 +10308,10 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C277" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -9415,10 +10319,10 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C278" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -9426,10 +10330,10 @@
         <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C279" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -9437,10 +10341,10 @@
         <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C280" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -9448,10 +10352,10 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C281" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -9459,10 +10363,10 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C282" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -9470,10 +10374,10 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C283" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -9481,10 +10385,10 @@
         <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C284" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -9492,10 +10396,10 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C285" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -9503,10 +10407,10 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C286" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -9514,10 +10418,10 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C287" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -9525,10 +10429,10 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C288" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -9536,10 +10440,10 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C289" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -9547,13 +10451,13 @@
         <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C290" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -9564,13 +10468,13 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C291" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E291">
         <v>1000</v>
@@ -9581,13 +10485,13 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C292" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -9598,13 +10502,13 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C293" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E293">
         <v>1000</v>
@@ -9615,10 +10519,10 @@
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C294" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -9626,10 +10530,10 @@
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C295" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -9637,13 +10541,13 @@
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C296" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D296" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -9654,13 +10558,13 @@
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C297" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D297" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E297">
         <v>1000</v>
@@ -9671,13 +10575,13 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C298" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D298" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -9688,13 +10592,13 @@
         <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C299" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D299" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E299">
         <v>1000</v>
@@ -9705,13 +10609,13 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C300" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D300" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -9722,13 +10626,13 @@
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C301" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D301" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E301">
         <v>1000</v>
@@ -9739,13 +10643,13 @@
         <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C302" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D302" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -9756,13 +10660,13 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C303" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D303" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E303">
         <v>1000</v>
@@ -9773,13 +10677,13 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C304" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D304" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -9790,13 +10694,13 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C305" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D305" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E305">
         <v>1000</v>
@@ -9807,10 +10711,10 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C306" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -9818,10 +10722,10 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C307" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -9829,10 +10733,10 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C308" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -9840,10 +10744,10 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C309" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -9851,13 +10755,13 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C310" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -9868,13 +10772,13 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C311" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E311">
         <v>1000</v>
@@ -9885,13 +10789,13 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C312" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -9902,13 +10806,13 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C313" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E313">
         <v>1000</v>
@@ -9919,10 +10823,10 @@
         <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C314" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -9930,10 +10834,10 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C315" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -9941,10 +10845,10 @@
         <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C316" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -9952,10 +10856,10 @@
         <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C317" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -9963,10 +10867,10 @@
         <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C318" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -9974,10 +10878,10 @@
         <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C319" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -9985,10 +10889,10 @@
         <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C320" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -9996,10 +10900,10 @@
         <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C321" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -10007,10 +10911,10 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C322" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -10018,10 +10922,10 @@
         <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C323" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -10029,13 +10933,13 @@
         <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C324" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E324">
         <v>1</v>
@@ -10046,13 +10950,13 @@
         <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C325" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E325">
         <v>1000</v>
@@ -10063,10 +10967,10 @@
         <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C326" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -10074,10 +10978,10 @@
         <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C327" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -10085,10 +10989,10 @@
         <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C328" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -10096,10 +11000,10 @@
         <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C329" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -10107,10 +11011,10 @@
         <v>6</v>
       </c>
       <c r="B330" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C330" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -10118,10 +11022,10 @@
         <v>6</v>
       </c>
       <c r="B331" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C331" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -10129,10 +11033,10 @@
         <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C332" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -10140,10 +11044,10 @@
         <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C333" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -10151,10 +11055,10 @@
         <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C334" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -10162,10 +11066,10 @@
         <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C335" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -10173,10 +11077,10 @@
         <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C336" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -10184,10 +11088,10 @@
         <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C337" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -10195,10 +11099,10 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C338" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -10206,10 +11110,10 @@
         <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C339" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -10217,10 +11121,10 @@
         <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C340" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -10228,10 +11132,10 @@
         <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C341" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -10239,10 +11143,10 @@
         <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C342" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -10250,10 +11154,10 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C343" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -10261,10 +11165,10 @@
         <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C344" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -10272,10 +11176,10 @@
         <v>6</v>
       </c>
       <c r="B345" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C345" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -10283,10 +11187,10 @@
         <v>6</v>
       </c>
       <c r="B346" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C346" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -10294,10 +11198,10 @@
         <v>6</v>
       </c>
       <c r="B347" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C347" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -10305,10 +11209,10 @@
         <v>6</v>
       </c>
       <c r="B348" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C348" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -10316,10 +11220,10 @@
         <v>6</v>
       </c>
       <c r="B349" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C349" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -10327,10 +11231,10 @@
         <v>6</v>
       </c>
       <c r="B350" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C350" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -10338,10 +11242,10 @@
         <v>6</v>
       </c>
       <c r="B351" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C351" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -10349,10 +11253,10 @@
         <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C352" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -10360,10 +11264,10 @@
         <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C353" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -10371,10 +11275,10 @@
         <v>6</v>
       </c>
       <c r="B354" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C354" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -10382,10 +11286,10 @@
         <v>6</v>
       </c>
       <c r="B355" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C355" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -10393,10 +11297,10 @@
         <v>6</v>
       </c>
       <c r="B356" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C356" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -10404,10 +11308,10 @@
         <v>6</v>
       </c>
       <c r="B357" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C357" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -11775,8 +12679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C67964-DE7F-484B-8942-DE43ADF9A703}">
   <dimension ref="B2:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:H78"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11839,16 +12743,16 @@
     </row>
     <row r="27" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27">
         <v>6</v>
@@ -11856,10 +12760,10 @@
     </row>
     <row r="28" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D28">
         <v>1000</v>
@@ -11873,16 +12777,16 @@
     </row>
     <row r="29" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H29">
         <v>8</v>
@@ -11890,16 +12794,16 @@
     </row>
     <row r="30" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D30">
         <v>1000</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H30">
         <v>9</v>
@@ -11907,16 +12811,16 @@
     </row>
     <row r="31" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H31">
         <v>10</v>
@@ -11924,16 +12828,16 @@
     </row>
     <row r="32" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D32">
         <v>1000</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H32">
         <v>11</v>
@@ -11941,10 +12845,10 @@
     </row>
     <row r="33" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -11958,16 +12862,16 @@
     </row>
     <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D34">
         <v>1000</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H34">
         <v>13</v>
@@ -11975,16 +12879,16 @@
     </row>
     <row r="35" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H35">
         <v>14</v>
@@ -11992,10 +12896,10 @@
     </row>
     <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D36">
         <v>1000</v>
@@ -12009,13 +12913,13 @@
     </row>
     <row r="37" spans="2:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H37">
         <v>20</v>
@@ -12023,13 +12927,13 @@
     </row>
     <row r="38" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H38">
         <v>21</v>
@@ -12037,13 +12941,13 @@
     </row>
     <row r="39" spans="2:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H39">
         <v>22</v>
@@ -12051,13 +12955,13 @@
     </row>
     <row r="40" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H40">
         <v>23</v>
@@ -12065,13 +12969,13 @@
     </row>
     <row r="41" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H41">
         <v>24</v>
@@ -12079,13 +12983,13 @@
     </row>
     <row r="42" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H42">
         <v>25</v>
@@ -12093,16 +12997,16 @@
     </row>
     <row r="43" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H43">
         <v>26</v>
@@ -12110,16 +13014,16 @@
     </row>
     <row r="44" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D44">
         <v>1000</v>
       </c>
       <c r="G44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H44">
         <v>27</v>
@@ -12127,16 +13031,16 @@
     </row>
     <row r="45" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H45">
         <v>28</v>
@@ -12144,16 +13048,16 @@
     </row>
     <row r="46" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D46">
         <v>1000</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H46">
         <v>29</v>
@@ -12161,16 +13065,16 @@
     </row>
     <row r="47" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H47">
         <v>34</v>
@@ -12178,16 +13082,16 @@
     </row>
     <row r="48" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D48">
         <v>1000</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H48">
         <v>35</v>
@@ -12195,16 +13099,16 @@
     </row>
     <row r="49" spans="2:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H49">
         <v>36</v>
@@ -12212,16 +13116,16 @@
     </row>
     <row r="50" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D50">
         <v>1000</v>
       </c>
       <c r="G50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H50">
         <v>37</v>
@@ -12229,16 +13133,16 @@
     </row>
     <row r="51" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H51">
         <v>38</v>
@@ -12246,16 +13150,16 @@
     </row>
     <row r="52" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D52">
         <v>1000</v>
       </c>
       <c r="G52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H52">
         <v>39</v>
@@ -12263,13 +13167,13 @@
     </row>
     <row r="53" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G53" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H53">
         <v>52</v>
@@ -12277,13 +13181,13 @@
     </row>
     <row r="54" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H54">
         <v>53</v>
@@ -12291,13 +13195,13 @@
     </row>
     <row r="55" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H55">
         <v>54</v>
@@ -12305,13 +13209,13 @@
     </row>
     <row r="56" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H56">
         <v>55</v>
@@ -12319,16 +13223,16 @@
     </row>
     <row r="57" spans="2:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H57">
         <v>56</v>
@@ -12336,16 +13240,16 @@
     </row>
     <row r="58" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D58">
         <v>1000</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H58">
         <v>57</v>
@@ -12353,16 +13257,16 @@
     </row>
     <row r="59" spans="2:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H59">
         <v>58</v>
@@ -12370,16 +13274,16 @@
     </row>
     <row r="60" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D60">
         <v>1000</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H60">
         <v>59</v>
@@ -12387,13 +13291,13 @@
     </row>
     <row r="61" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H61">
         <v>60</v>
@@ -12401,13 +13305,13 @@
     </row>
     <row r="62" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H62">
         <v>61</v>
@@ -12415,13 +13319,13 @@
     </row>
     <row r="63" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G63" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H63">
         <v>62</v>
@@ -12429,13 +13333,13 @@
     </row>
     <row r="64" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G64" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H64">
         <v>63</v>
@@ -12443,13 +13347,13 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H65">
         <v>68</v>
@@ -12457,13 +13361,13 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C66" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G66" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H66">
         <v>69</v>
@@ -12471,16 +13375,16 @@
     </row>
     <row r="67" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H67">
         <v>70</v>
@@ -12488,16 +13392,16 @@
     </row>
     <row r="68" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D68">
         <v>1000</v>
       </c>
       <c r="G68" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H68">
         <v>71</v>
@@ -12505,16 +13409,16 @@
     </row>
     <row r="69" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H69">
         <v>72</v>
@@ -12522,16 +13426,16 @@
     </row>
     <row r="70" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D70">
         <v>1000</v>
       </c>
       <c r="G70" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H70">
         <v>73</v>
@@ -12539,16 +13443,16 @@
     </row>
     <row r="71" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H71">
         <v>130</v>
@@ -12556,16 +13460,16 @@
     </row>
     <row r="72" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D72">
         <v>1000</v>
       </c>
       <c r="G72" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H72">
         <v>131</v>
@@ -12573,16 +13477,16 @@
     </row>
     <row r="73" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H73">
         <v>132</v>
@@ -12599,7 +13503,7 @@
         <v>1000</v>
       </c>
       <c r="G74" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H74">
         <v>133</v>
@@ -12607,16 +13511,16 @@
     </row>
     <row r="75" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H75">
         <v>138</v>
@@ -12624,16 +13528,16 @@
     </row>
     <row r="76" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D76">
         <v>1000</v>
       </c>
       <c r="G76" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H76">
         <v>139</v>
@@ -12641,13 +13545,13 @@
     </row>
     <row r="77" spans="2:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G77" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H77">
         <v>142</v>
@@ -12658,10 +13562,10 @@
         <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G78" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H78">
         <v>143</v>

--- a/data/target_recipes.xlsx
+++ b/data/target_recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\projects\taxdata-psl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ADC44E-CCD4-41EF-BB50-97D60C4FB5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCADC72D-F105-4090-A29C-0C583FD23EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="4" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="irs_downloads" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="510">
   <si>
     <t>table</t>
   </si>
@@ -1476,9 +1476,6 @@
     <t>key_concepts</t>
   </si>
   <si>
-    <t>column_2017</t>
-  </si>
-  <si>
     <t>column_2015</t>
   </si>
   <si>
@@ -1489,9 +1486,6 @@
   </si>
   <si>
     <t>rownum_2021</t>
-  </si>
-  <si>
-    <t>rownum_2017</t>
   </si>
   <si>
     <r>
@@ -1575,12 +1569,6 @@
   </si>
   <si>
     <t>rowtype</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
   </si>
   <si>
     <t>description</t>
@@ -1826,7 +1814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1877,9 +1865,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1917,7 +1902,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>29773</xdr:rowOff>
     </xdr:to>
@@ -1960,8 +1945,8 @@
       <xdr:rowOff>104528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>464821</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>160989</xdr:rowOff>
     </xdr:to>
@@ -2009,8 +1994,8 @@
       <xdr:rowOff>18611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>467603</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162803</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>121081</xdr:rowOff>
     </xdr:to>
@@ -2054,7 +2039,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>68931</xdr:colOff>
+      <xdr:colOff>373731</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -2103,7 +2088,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>197276</xdr:colOff>
+      <xdr:colOff>502076</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>52988</xdr:rowOff>
     </xdr:to>
@@ -2147,7 +2132,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>297992</xdr:colOff>
+      <xdr:colOff>602792</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>178657</xdr:rowOff>
     </xdr:to>
@@ -2190,8 +2175,8 @@
       <xdr:rowOff>84318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>601981</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297181</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>58121</xdr:rowOff>
     </xdr:to>
@@ -2234,8 +2219,8 @@
       <xdr:rowOff>137100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>412292</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107492</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>25353</xdr:rowOff>
     </xdr:to>
@@ -2279,7 +2264,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>77906</xdr:rowOff>
     </xdr:to>
@@ -2323,7 +2308,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>172735</xdr:rowOff>
     </xdr:to>
@@ -2360,13 +2345,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>100390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>110685</xdr:rowOff>
@@ -2404,13 +2389,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>119290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>191550</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>153050</xdr:rowOff>
@@ -2448,13 +2433,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>112078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>376201</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>178273</xdr:rowOff>
@@ -2492,13 +2477,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>206528</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>68159</xdr:rowOff>
@@ -2536,13 +2521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>78430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>478774</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>49691</xdr:rowOff>
@@ -2580,13 +2565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>159279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>193402</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>157575</xdr:rowOff>
@@ -2626,6 +2611,407 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60775</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>48465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74B824A-18DD-3E00-6084-E4609E66485C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22860" y="15575280"/>
+          <a:ext cx="8313235" cy="4041345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>44432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC05050-A619-47D4-BF18-71881873B40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15207430"/>
+          <a:ext cx="8054340" cy="4953802"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>100927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0213E3-C9C6-4440-8DD9-C756E4FECE17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45721" y="20337897"/>
+          <a:ext cx="11849100" cy="4086070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>94356</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>83587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18B7DEB-9656-4A3C-863A-73C6292985DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24688800"/>
+          <a:ext cx="11417676" cy="3924067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>106999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28018125-CDEE-4E0C-9660-46B48C731F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28712160"/>
+          <a:ext cx="9471660" cy="4861879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>784859</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>124559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04213A0B-C816-14AA-2A3A-8BD35199B626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8237219" y="15303599"/>
+          <a:ext cx="8260081" cy="4919881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>40683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>359147</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>139059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADAD509-D348-40D6-92B9-3B5016B74676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12085320" y="20340363"/>
+          <a:ext cx="15446747" cy="4304616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>67252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>410836</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335FA69A-C448-4548-9A2A-9BCC2BE5B0FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11925300" y="24756052"/>
+          <a:ext cx="13829656" cy="4276148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>264946</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>106714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>438504</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC479B24-2F46-45FB-B1C1-D746D36A3A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9759466" y="29184634"/>
+          <a:ext cx="9317558" cy="4762466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2718,7 +3104,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3787,7 +4173,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
@@ -3798,7 +4184,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -3810,7 +4196,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
@@ -3818,10 +4204,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -3833,10 +4219,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -3844,10 +4230,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -3859,7 +4245,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.3">
@@ -3867,10 +4253,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -3882,10 +4268,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4434,37 +4820,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D7A5D-02D8-4436-AE45-CC0DD5660F86}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -4472,11 +4858,11 @@
       <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
@@ -4484,32 +4870,29 @@
       <c r="C3" s="2">
         <v>29</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>462</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -4519,15 +4902,14 @@
       <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>141</v>
       </c>
@@ -4537,15 +4919,14 @@
       <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="E7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>144</v>
       </c>
@@ -4555,15 +4936,14 @@
       <c r="C8" s="18">
         <v>1000</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="E8" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>147</v>
       </c>
@@ -4573,11 +4953,10 @@
       <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="E9" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4589,37 +4968,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A71DED-1A7D-4276-85EC-7E1941122B27}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B2" s="2">
         <v>9</v>
@@ -4627,11 +5006,11 @@
       <c r="C2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2">
         <v>28</v>
@@ -4639,32 +5018,29 @@
       <c r="C3" s="2">
         <v>28</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>462</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -4674,15 +5050,14 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
       <c r="E6" t="s">
         <v>138</v>
       </c>
-      <c r="F6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>141</v>
       </c>
@@ -4692,15 +5067,14 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
       <c r="E7" t="s">
         <v>140</v>
       </c>
-      <c r="F7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>144</v>
       </c>
@@ -4710,15 +5084,14 @@
       <c r="C8">
         <v>1000</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
       <c r="E8" t="s">
         <v>152</v>
       </c>
-      <c r="F8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>153</v>
       </c>
@@ -4728,12 +5101,11 @@
       <c r="C9">
         <v>1000</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>391</v>
       </c>
@@ -4743,15 +5115,14 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
       <c r="E10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>394</v>
       </c>
@@ -4761,15 +5132,14 @@
       <c r="C11">
         <v>1000</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
       <c r="E11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>159</v>
       </c>
@@ -4779,15 +5149,14 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
       <c r="E12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>162</v>
       </c>
@@ -4797,15 +5166,14 @@
       <c r="C13">
         <v>1000</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
       <c r="E13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>165</v>
       </c>
@@ -4815,15 +5183,14 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
       <c r="E14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>168</v>
       </c>
@@ -4833,15 +5200,14 @@
       <c r="C15">
         <v>1000</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
       <c r="E15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>171</v>
       </c>
@@ -4851,15 +5217,14 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
       <c r="E16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>118</v>
       </c>
@@ -4869,15 +5234,14 @@
       <c r="C17">
         <v>1000</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
       <c r="E17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>174</v>
       </c>
@@ -4887,15 +5251,14 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
       <c r="E18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>124</v>
       </c>
@@ -4905,15 +5268,14 @@
       <c r="C19">
         <v>1000</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
       <c r="E19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>177</v>
       </c>
@@ -4923,15 +5285,14 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
       <c r="E20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>180</v>
       </c>
@@ -4941,15 +5302,14 @@
       <c r="C21">
         <v>1000</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
       <c r="E21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>193</v>
       </c>
@@ -4959,14 +5319,14 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22" t="s">
+        <v>192</v>
+      </c>
       <c r="E22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -4976,16 +5336,15 @@
       <c r="C23">
         <v>1000</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>210</v>
       </c>
@@ -4995,16 +5354,15 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
       <c r="E24" t="s">
-        <v>209</v>
-      </c>
-      <c r="F24" t="s">
         <v>206</v>
       </c>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -5014,14 +5372,14 @@
       <c r="C25">
         <v>1000</v>
       </c>
+      <c r="D25" t="s">
+        <v>212</v>
+      </c>
       <c r="E25" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>227</v>
       </c>
@@ -5031,14 +5389,14 @@
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
       <c r="E26" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>230</v>
       </c>
@@ -5048,10 +5406,10 @@
       <c r="C27">
         <v>1000</v>
       </c>
+      <c r="D27" t="s">
+        <v>229</v>
+      </c>
       <c r="E27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F27" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5063,13 +5421,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160F9713-946D-4B96-B17B-71BE4C427E7B}">
-  <dimension ref="A1:K166"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5077,28 +5435,28 @@
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B2" s="2">
         <v>9</v>
@@ -5106,11 +5464,11 @@
       <c r="C2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2">
         <v>28</v>
@@ -5118,32 +5476,29 @@
       <c r="C3" s="2">
         <v>28</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>462</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -5153,14 +5508,14 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
@@ -5170,14 +5525,14 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>144</v>
       </c>
@@ -5187,14 +5542,14 @@
       <c r="C8">
         <v>1000</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>243</v>
       </c>
@@ -5204,14 +5559,14 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>245</v>
       </c>
@@ -5221,14 +5576,14 @@
       <c r="C10">
         <v>1000</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>247</v>
       </c>
@@ -5238,14 +5593,14 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>249</v>
       </c>
@@ -5255,14 +5610,14 @@
       <c r="C12">
         <v>1000</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>251</v>
       </c>
@@ -5272,14 +5627,14 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>253</v>
       </c>
@@ -5289,14 +5644,14 @@
       <c r="C14">
         <v>1000</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>255</v>
       </c>
@@ -5306,14 +5661,14 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>257</v>
       </c>
@@ -5323,14 +5678,14 @@
       <c r="C16">
         <v>1000</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>259</v>
       </c>
@@ -5340,14 +5695,14 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>261</v>
       </c>
@@ -5357,14 +5712,14 @@
       <c r="C18">
         <v>1000</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>263</v>
       </c>
@@ -5374,14 +5729,14 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>265</v>
       </c>
@@ -5391,14 +5746,14 @@
       <c r="C20">
         <v>1000</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>267</v>
       </c>
@@ -5408,14 +5763,14 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>269</v>
       </c>
@@ -5425,14 +5780,14 @@
       <c r="C22">
         <v>1000</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>271</v>
       </c>
@@ -5442,14 +5797,14 @@
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>273</v>
       </c>
@@ -5459,14 +5814,14 @@
       <c r="C24">
         <v>1000</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>275</v>
       </c>
@@ -5476,14 +5831,14 @@
       <c r="C25">
         <v>1</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>277</v>
       </c>
@@ -5493,14 +5848,14 @@
       <c r="C26">
         <v>1000</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>279</v>
       </c>
@@ -5510,14 +5865,14 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>281</v>
       </c>
@@ -5527,14 +5882,14 @@
       <c r="C28">
         <v>1000</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>283</v>
       </c>
@@ -5544,14 +5899,14 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>285</v>
       </c>
@@ -5561,14 +5916,14 @@
       <c r="C30">
         <v>1000</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>287</v>
       </c>
@@ -5578,14 +5933,14 @@
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>289</v>
       </c>
@@ -5595,14 +5950,14 @@
       <c r="C32">
         <v>1000</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>291</v>
       </c>
@@ -5612,14 +5967,14 @@
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>293</v>
       </c>
@@ -5629,14 +5984,14 @@
       <c r="C34">
         <v>1000</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>295</v>
       </c>
@@ -5646,14 +6001,14 @@
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>297</v>
       </c>
@@ -5663,14 +6018,14 @@
       <c r="C36">
         <v>1000</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>299</v>
       </c>
@@ -5680,14 +6035,14 @@
       <c r="C37">
         <v>1</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>301</v>
       </c>
@@ -5697,14 +6052,14 @@
       <c r="C38">
         <v>1000</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>303</v>
       </c>
@@ -5714,15 +6069,15 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E39" s="19"/>
+      <c r="F39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>305</v>
       </c>
@@ -5732,15 +6087,15 @@
       <c r="C40">
         <v>1000</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E40" s="19"/>
+      <c r="F40" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>307</v>
       </c>
@@ -5750,15 +6105,15 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E41" s="19"/>
+      <c r="F41" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>309</v>
       </c>
@@ -5768,135 +6123,135 @@
       <c r="C42">
         <v>1000</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E42" s="19"/>
+      <c r="F42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="2" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="C44">
         <v>1000</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="2" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="2" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="C46">
         <v>1000</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="2" t="s">
+      <c r="D46" s="15"/>
+      <c r="E46" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="2" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="C48">
         <v>1000</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="2" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="2" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="C50">
         <v>1000</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="2" t="s">
+      <c r="D50" s="15"/>
+      <c r="E50" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>311</v>
       </c>
@@ -5906,14 +6261,14 @@
       <c r="C51">
         <v>1</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F51" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>313</v>
       </c>
@@ -5923,14 +6278,14 @@
       <c r="C52">
         <v>1000</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="E52" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F52" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>315</v>
       </c>
@@ -5940,14 +6295,14 @@
       <c r="C53">
         <v>1</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="E53" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F53" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>317</v>
       </c>
@@ -5957,48 +6312,48 @@
       <c r="C54">
         <v>1000</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="E54" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F54" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E55" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F55" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C56">
         <v>1000</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F56" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>323</v>
       </c>
@@ -6008,14 +6363,14 @@
       <c r="C57">
         <v>1</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="E57" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F57" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>326</v>
       </c>
@@ -6025,14 +6380,14 @@
       <c r="C58">
         <v>1000</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="E58" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F58" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>329</v>
       </c>
@@ -6042,14 +6397,14 @@
       <c r="C59">
         <v>1</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="E59" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F59" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>332</v>
       </c>
@@ -6059,14 +6414,14 @@
       <c r="C60">
         <v>1000</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="E60" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F60" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>391</v>
       </c>
@@ -6076,14 +6431,14 @@
       <c r="C61">
         <v>1</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>394</v>
       </c>
@@ -6093,14 +6448,14 @@
       <c r="C62">
         <v>1000</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>396</v>
       </c>
@@ -6110,12 +6465,12 @@
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>153</v>
       </c>
@@ -6125,42 +6480,42 @@
       <c r="C64">
         <v>1000</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="2" t="s">
+      <c r="D65" s="19"/>
+      <c r="E65" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C66">
         <v>1000</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="2" t="s">
+      <c r="D66" s="19"/>
+      <c r="E66" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>404</v>
       </c>
@@ -6170,14 +6525,14 @@
       <c r="C67">
         <v>1</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>407</v>
       </c>
@@ -6187,14 +6542,14 @@
       <c r="C68">
         <v>1000</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="E68" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>412</v>
       </c>
@@ -6204,14 +6559,14 @@
       <c r="C69">
         <v>1</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="E69" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>109</v>
       </c>
@@ -6221,438 +6576,438 @@
       <c r="C70">
         <v>1000</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="E70" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
-      <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
-      <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
-      <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
-      <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
-      <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
-      <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
-      <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
-      <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
-      <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
-      <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
-      <c r="K129" s="2"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
-      <c r="K130" s="2"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
-      <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="K132" s="2"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="K133" s="2"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="K134" s="2"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
-      <c r="K137" s="2"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="K138" s="2"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K139" s="2"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K140" s="2"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K141" s="2"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K142" s="2"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K143" s="2"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K144" s="2"/>
-    </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K147" s="2"/>
-    </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K156" s="2"/>
-    </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K159" s="2"/>
-    </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K160" s="2"/>
-    </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K161" s="2"/>
-    </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K162" s="2"/>
-    </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K163" s="2"/>
-    </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K165" s="2"/>
-    </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K166" s="2"/>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J145" s="2"/>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J147" s="2"/>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J166" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J8:P74">
-    <sortCondition ref="P8:P74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I8:O74">
+    <sortCondition ref="O8:O74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6661,40 +7016,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0531E3B2-59F3-4C51-ACDB-98FDFE2EB357}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -6702,135 +7054,716 @@
       <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>462</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>420</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>1000</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>141</v>
+        <v>391</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>392</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="E7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>144</v>
+        <v>421</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>422</v>
       </c>
       <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="18">
         <v>1000</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="D9" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="D10" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J110" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F11:K32">
+    <sortCondition ref="F11:F32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6839,10 +7772,10 @@
   <dimension ref="A1:F357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="A226" sqref="A226:G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/target_recipes.xlsx
+++ b/data/target_recipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\projects\taxdata-psl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCADC72D-F105-4090-A29C-0C583FD23EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78CC42C-B585-425B-A48D-59E88341CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="4" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="irs_downloads" sheetId="2" r:id="rId1"/>
@@ -44,8 +44,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={474262C1-F46E-4541-95C6-66B52C288E8E}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{474262C1-F46E-4541-95C6-66B52C288E8E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CAUTION: Note different income ranges for taxable in 2021</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="513">
   <si>
     <t>table</t>
   </si>
@@ -1671,9 +1689,6 @@
     <t>Partnership net loss</t>
   </si>
   <si>
-    <t>partnership and scorp split in 2021</t>
-  </si>
-  <si>
     <t>scorpinc</t>
   </si>
   <si>
@@ -1711,13 +1726,25 @@
   </si>
   <si>
     <t>vname</t>
+  </si>
+  <si>
+    <t>rownum_2015_txbl</t>
+  </si>
+  <si>
+    <t>rownum_2021_txbl</t>
+  </si>
+  <si>
+    <t>column_2015_txbl</t>
+  </si>
+  <si>
+    <t>column_2021_txbl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,8 +1775,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1777,6 +1810,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,7 +1853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1865,6 +1904,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,13 +1943,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>139404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>29773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1941,13 +1987,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>175261</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>104528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>160021</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>160989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2620,8 +2666,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>60775</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>799915</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>48465</xdr:rowOff>
     </xdr:to>
@@ -2665,7 +2711,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>44432</xdr:rowOff>
     </xdr:to>
@@ -2708,8 +2754,8 @@
       <xdr:rowOff>38217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>100927</xdr:rowOff>
     </xdr:to>
@@ -2752,8 +2798,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>94356</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18156</xdr:colOff>
       <xdr:row>128</xdr:row>
       <xdr:rowOff>83587</xdr:rowOff>
     </xdr:to>
@@ -2797,7 +2843,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>106999</xdr:rowOff>
     </xdr:to>
@@ -2834,13 +2880,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>784859</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>124559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
@@ -2878,13 +2924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>40683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>359147</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>139059</xdr:rowOff>
@@ -2922,13 +2968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>67252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>410836</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -2966,13 +3012,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>264946</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>106714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>438504</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3813,6 +3859,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Don Boyd" id="{E62C18B2-089C-4ED5-8BED-8CDF099F06B2}" userId="6072f2c289e873cd" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4128,6 +4180,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2024-04-03T13:10:32.98" personId="{E62C18B2-089C-4ED5-8BED-8CDF099F06B2}" id="{474262C1-F46E-4541-95C6-66B52C288E8E}">
+    <text>CAUTION: Note different income ranges for taxable in 2021</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4993BB1E-ED9F-4001-B11A-6394D6D6D19B}">
   <dimension ref="A1:H9"/>
@@ -4820,10 +4880,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D7A5D-02D8-4436-AE45-CC0DD5660F86}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4836,7 +4899,7 @@
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>473</v>
       </c>
@@ -4846,9 +4909,14 @@
       <c r="C1" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>483</v>
       </c>
@@ -4858,9 +4926,14 @@
       <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>482</v>
       </c>
@@ -4870,11 +4943,16 @@
       <c r="C3" s="2">
         <v>29</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>474</v>
@@ -4889,10 +4967,16 @@
         <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -4908,8 +4992,14 @@
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>141</v>
       </c>
@@ -4925,8 +5015,14 @@
       <c r="E7" s="18" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>144</v>
       </c>
@@ -4942,22 +5038,11 @@
       <c r="E8" s="18" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>146</v>
+      <c r="F8" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4967,11 +5052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A71DED-1A7D-4276-85EC-7E1941122B27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A71DED-1A7D-4276-85EC-7E1941122B27}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4984,7 +5072,7 @@
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>473</v>
       </c>
@@ -4994,9 +5082,14 @@
       <c r="C1" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>483</v>
       </c>
@@ -5006,9 +5099,14 @@
       <c r="C2" s="2">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>482</v>
       </c>
@@ -5018,11 +5116,16 @@
       <c r="C3" s="2">
         <v>28</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="15">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>474</v>
@@ -5037,10 +5140,16 @@
         <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -5056,8 +5165,14 @@
       <c r="E6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>141</v>
       </c>
@@ -5073,8 +5188,14 @@
       <c r="E7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>144</v>
       </c>
@@ -5090,8 +5211,14 @@
       <c r="E8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>153</v>
       </c>
@@ -5104,8 +5231,11 @@
       <c r="D9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>391</v>
       </c>
@@ -5121,8 +5251,14 @@
       <c r="E10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>394</v>
       </c>
@@ -5138,8 +5274,14 @@
       <c r="E11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>159</v>
       </c>
@@ -5155,8 +5297,14 @@
       <c r="E12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>162</v>
       </c>
@@ -5172,8 +5320,14 @@
       <c r="E13" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>165</v>
       </c>
@@ -5189,8 +5343,14 @@
       <c r="E14" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>168</v>
       </c>
@@ -5206,8 +5366,14 @@
       <c r="E15" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>171</v>
       </c>
@@ -5221,6 +5387,12 @@
         <v>170</v>
       </c>
       <c r="E16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5240,6 +5412,12 @@
       <c r="E17" t="s">
         <v>170</v>
       </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
@@ -5257,6 +5435,12 @@
       <c r="E18" t="s">
         <v>149</v>
       </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
@@ -5274,6 +5458,12 @@
       <c r="E19" t="s">
         <v>173</v>
       </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
@@ -5291,6 +5481,12 @@
       <c r="E20" t="s">
         <v>176</v>
       </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
@@ -5308,6 +5504,12 @@
       <c r="E21" t="s">
         <v>150</v>
       </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -5325,6 +5527,12 @@
       <c r="E22" t="s">
         <v>190</v>
       </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -5342,6 +5550,12 @@
       <c r="E23" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -5360,6 +5574,12 @@
       <c r="E24" t="s">
         <v>206</v>
       </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>206</v>
+      </c>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -5378,6 +5598,12 @@
       <c r="E25" t="s">
         <v>207</v>
       </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -5395,6 +5621,12 @@
       <c r="E26" t="s">
         <v>222</v>
       </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -5412,10 +5644,17 @@
       <c r="E27" t="s">
         <v>223</v>
       </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5427,7 +5666,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5442,7 +5681,7 @@
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>473</v>
       </c>
@@ -5452,9 +5691,14 @@
       <c r="C1" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>483</v>
       </c>
@@ -5464,9 +5708,14 @@
       <c r="C2" s="2">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="15">
+        <v>29</v>
+      </c>
+      <c r="E2" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>482</v>
       </c>
@@ -5476,11 +5725,16 @@
       <c r="C3" s="2">
         <v>28</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="15">
+        <v>29</v>
+      </c>
+      <c r="E3" s="22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>474</v>
@@ -5495,10 +5749,13 @@
         <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -5514,8 +5771,14 @@
       <c r="E6" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
@@ -5531,8 +5794,14 @@
       <c r="E7" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>144</v>
       </c>
@@ -5548,8 +5817,14 @@
       <c r="E8" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>243</v>
       </c>
@@ -5565,8 +5840,14 @@
       <c r="E9" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>245</v>
       </c>
@@ -5582,8 +5863,14 @@
       <c r="E10" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>247</v>
       </c>
@@ -5599,8 +5886,14 @@
       <c r="E11" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>249</v>
       </c>
@@ -5616,8 +5909,14 @@
       <c r="E12" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>251</v>
       </c>
@@ -5633,8 +5932,14 @@
       <c r="E13" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>253</v>
       </c>
@@ -5650,8 +5955,14 @@
       <c r="E14" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>255</v>
       </c>
@@ -5667,8 +5978,14 @@
       <c r="E15" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>257</v>
       </c>
@@ -5684,8 +6001,14 @@
       <c r="E16" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>259</v>
       </c>
@@ -5701,8 +6024,14 @@
       <c r="E17" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>261</v>
       </c>
@@ -5718,8 +6047,14 @@
       <c r="E18" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>263</v>
       </c>
@@ -5735,8 +6070,14 @@
       <c r="E19" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>265</v>
       </c>
@@ -5752,8 +6093,14 @@
       <c r="E20" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>267</v>
       </c>
@@ -5769,8 +6116,14 @@
       <c r="E21" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>269</v>
       </c>
@@ -5786,8 +6139,14 @@
       <c r="E22" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>271</v>
       </c>
@@ -5803,8 +6162,14 @@
       <c r="E23" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>273</v>
       </c>
@@ -5820,8 +6185,14 @@
       <c r="E24" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>275</v>
       </c>
@@ -5837,8 +6208,14 @@
       <c r="E25" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>277</v>
       </c>
@@ -5854,8 +6231,14 @@
       <c r="E26" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>279</v>
       </c>
@@ -5871,8 +6254,14 @@
       <c r="E27" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>281</v>
       </c>
@@ -5888,8 +6277,14 @@
       <c r="E28" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>283</v>
       </c>
@@ -5905,8 +6300,14 @@
       <c r="E29" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>285</v>
       </c>
@@ -5922,8 +6323,14 @@
       <c r="E30" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>287</v>
       </c>
@@ -5939,8 +6346,14 @@
       <c r="E31" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>289</v>
       </c>
@@ -5956,8 +6369,14 @@
       <c r="E32" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>291</v>
       </c>
@@ -5973,8 +6392,14 @@
       <c r="E33" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>293</v>
       </c>
@@ -5990,8 +6415,14 @@
       <c r="E34" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>295</v>
       </c>
@@ -6007,8 +6438,14 @@
       <c r="E35" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>297</v>
       </c>
@@ -6024,8 +6461,14 @@
       <c r="E36" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>299</v>
       </c>
@@ -6041,8 +6484,14 @@
       <c r="E37" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>301</v>
       </c>
@@ -6058,8 +6507,14 @@
       <c r="E38" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>303</v>
       </c>
@@ -6073,11 +6528,12 @@
         <v>232</v>
       </c>
       <c r="E39" s="19"/>
-      <c r="F39" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F39" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>305</v>
       </c>
@@ -6091,11 +6547,12 @@
         <v>233</v>
       </c>
       <c r="E40" s="19"/>
-      <c r="F40" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F40" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>307</v>
       </c>
@@ -6109,11 +6566,12 @@
         <v>234</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>309</v>
       </c>
@@ -6127,11 +6585,12 @@
         <v>235</v>
       </c>
       <c r="E42" s="19"/>
-      <c r="F42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>488</v>
       </c>
@@ -6145,8 +6604,12 @@
       <c r="E43" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="15"/>
+      <c r="G43" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>489</v>
       </c>
@@ -6160,8 +6623,12 @@
       <c r="E44" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F44" s="15"/>
+      <c r="G44" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>490</v>
       </c>
@@ -6175,8 +6642,12 @@
       <c r="E45" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="15"/>
+      <c r="G45" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>491</v>
       </c>
@@ -6190,13 +6661,17 @@
       <c r="E46" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F46" s="15"/>
+      <c r="G46" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -6205,13 +6680,17 @@
       <c r="E47" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="15"/>
+      <c r="G47" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C48">
         <v>1000</v>
@@ -6220,13 +6699,17 @@
       <c r="E48" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F48" s="15"/>
+      <c r="G48" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -6235,13 +6718,17 @@
       <c r="E49" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="15"/>
+      <c r="G49" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C50">
         <v>1000</v>
@@ -6250,8 +6737,12 @@
       <c r="E50" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F50" s="15"/>
+      <c r="G50" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>311</v>
       </c>
@@ -6267,8 +6758,14 @@
       <c r="E51" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>313</v>
       </c>
@@ -6284,8 +6781,14 @@
       <c r="E52" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F52" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>315</v>
       </c>
@@ -6301,8 +6804,14 @@
       <c r="E53" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>317</v>
       </c>
@@ -6318,8 +6827,14 @@
       <c r="E54" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>485</v>
       </c>
@@ -6335,8 +6850,14 @@
       <c r="E55" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F55" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>484</v>
       </c>
@@ -6352,8 +6873,14 @@
       <c r="E56" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F56" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>323</v>
       </c>
@@ -6369,8 +6896,14 @@
       <c r="E57" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F57" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>326</v>
       </c>
@@ -6386,8 +6919,14 @@
       <c r="E58" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F58" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>329</v>
       </c>
@@ -6403,8 +6942,14 @@
       <c r="E59" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F59" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>332</v>
       </c>
@@ -6420,8 +6965,14 @@
       <c r="E60" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F60" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>391</v>
       </c>
@@ -6437,8 +6988,14 @@
       <c r="E61" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>394</v>
       </c>
@@ -6454,8 +7011,14 @@
       <c r="E62" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>396</v>
       </c>
@@ -6469,8 +7032,12 @@
         <v>388</v>
       </c>
       <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>153</v>
       </c>
@@ -6484,13 +7051,17 @@
         <v>389</v>
       </c>
       <c r="E64" s="19"/>
+      <c r="F64" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6499,13 +7070,17 @@
       <c r="E65" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C66">
         <v>1000</v>
@@ -6514,6 +7089,10 @@
       <c r="E66" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
@@ -6531,6 +7110,12 @@
       <c r="E67" s="2" t="s">
         <v>399</v>
       </c>
+      <c r="F67" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -6548,6 +7133,12 @@
       <c r="E68" s="2" t="s">
         <v>400</v>
       </c>
+      <c r="F68" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -6565,6 +7156,12 @@
       <c r="E69" s="2" t="s">
         <v>403</v>
       </c>
+      <c r="F69" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
@@ -6580,6 +7177,12 @@
         <v>406</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7016,10 +7619,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0531E3B2-59F3-4C51-ACDB-98FDFE2EB357}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7027,12 +7633,12 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>473</v>
       </c>
@@ -7042,9 +7648,14 @@
       <c r="C1" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D1" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>483</v>
       </c>
@@ -7054,9 +7665,14 @@
       <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="15">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>482</v>
       </c>
@@ -7066,11 +7682,16 @@
       <c r="C3" s="2">
         <v>32</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="15">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>474</v>
@@ -7085,10 +7706,16 @@
         <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -7104,8 +7731,14 @@
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>391</v>
       </c>
@@ -7121,8 +7754,14 @@
       <c r="E7" s="18" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>421</v>
       </c>
@@ -7138,8 +7777,14 @@
       <c r="E8" s="18" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>423</v>
       </c>
@@ -7155,8 +7800,14 @@
       <c r="E9" s="18" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F9" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>425</v>
       </c>
@@ -7172,8 +7823,14 @@
       <c r="E10" s="18" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>427</v>
       </c>
@@ -7189,9 +7846,15 @@
       <c r="E11" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>429</v>
       </c>
@@ -7207,9 +7870,15 @@
       <c r="E12" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>431</v>
       </c>
@@ -7225,9 +7894,15 @@
       <c r="E13" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F13" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>433</v>
       </c>
@@ -7243,9 +7918,15 @@
       <c r="E14" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F14" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>435</v>
       </c>
@@ -7261,9 +7942,15 @@
       <c r="E15" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F15" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>437</v>
       </c>
@@ -7279,9 +7966,15 @@
       <c r="E16" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F16" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>439</v>
       </c>
@@ -7297,8 +7990,14 @@
       <c r="E17" s="18" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F17" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>441</v>
       </c>
@@ -7314,8 +8013,14 @@
       <c r="E18" s="18" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F18" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>443</v>
       </c>
@@ -7331,8 +8036,14 @@
       <c r="E19" s="18" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F19" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>445</v>
       </c>
@@ -7348,8 +8059,14 @@
       <c r="E20" s="18" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F20" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>447</v>
       </c>
@@ -7365,8 +8082,14 @@
       <c r="E21" s="18" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>449</v>
       </c>
@@ -7382,8 +8105,14 @@
       <c r="E22" s="18" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>451</v>
       </c>
@@ -7399,8 +8128,14 @@
       <c r="E23" s="18" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F23" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>453</v>
       </c>
@@ -7416,8 +8151,14 @@
       <c r="E24" s="18" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F24" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>455</v>
       </c>
@@ -7433,8 +8174,14 @@
       <c r="E25" s="18" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F25" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>457</v>
       </c>
@@ -7450,8 +8197,14 @@
       <c r="E26" s="18" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F26" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>459</v>
       </c>
@@ -7467,300 +8220,306 @@
       <c r="E27" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="3"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="3"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="3"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="3"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="3"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="3"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="3"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="3"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="3"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="3"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J97" s="2"/>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J98" s="2"/>
-    </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J99" s="2"/>
-    </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J100" s="2"/>
-    </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J102" s="2"/>
-    </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J105" s="2"/>
-    </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J107" s="2"/>
-    </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J108" s="2"/>
-    </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J109" s="2"/>
-    </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J110" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L110" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F11:K32">
-    <sortCondition ref="F11:F32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H11:M32">
+    <sortCondition ref="H11:H32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/target_recipes.xlsx
+++ b/data/target_recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\projects\taxdata-psl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78CC42C-B585-425B-A48D-59E88341CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB824E-42DB-4D9F-926C-284B24A0ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="irs_downloads" sheetId="2" r:id="rId1"/>
@@ -44,26 +44,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={474262C1-F46E-4541-95C6-66B52C288E8E}</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{474262C1-F46E-4541-95C6-66B52C288E8E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    CAUTION: Note different income ranges for taxable in 2021</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="509">
   <si>
     <t>table</t>
   </si>
@@ -1492,18 +1474,6 @@
   </si>
   <si>
     <t>key_concepts</t>
-  </si>
-  <si>
-    <t>column_2015</t>
-  </si>
-  <si>
-    <t>column_2021</t>
-  </si>
-  <si>
-    <t>rownum_2015</t>
-  </si>
-  <si>
-    <t>rownum_2021</t>
   </si>
   <si>
     <r>
@@ -1728,23 +1698,23 @@
     <t>vname</t>
   </si>
   <si>
-    <t>rownum_2015_txbl</t>
-  </si>
-  <si>
-    <t>rownum_2021_txbl</t>
-  </si>
-  <si>
-    <t>column_2015_txbl</t>
-  </si>
-  <si>
-    <t>column_2021_txbl</t>
+    <t>filers_2015</t>
+  </si>
+  <si>
+    <t>filers_2021</t>
+  </si>
+  <si>
+    <t>taxable_2015</t>
+  </si>
+  <si>
+    <t>taxable_2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1773,12 +1743,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1853,7 +1817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1905,9 +1869,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -3860,9 +3821,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Don Boyd" id="{E62C18B2-089C-4ED5-8BED-8CDF099F06B2}" userId="6072f2c289e873cd" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4180,14 +4139,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2024-04-03T13:10:32.98" personId="{E62C18B2-089C-4ED5-8BED-8CDF099F06B2}" id="{474262C1-F46E-4541-95C6-66B52C288E8E}">
-    <text>CAUTION: Note different income ranges for taxable in 2021</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4993BB1E-ED9F-4001-B11A-6394D6D6D19B}">
   <dimension ref="A1:H9"/>
@@ -4233,7 +4184,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
@@ -4244,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -4256,7 +4207,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
@@ -4264,10 +4215,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -4279,10 +4230,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -4290,10 +4241,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -4305,7 +4256,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.3">
@@ -4313,10 +4264,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -4328,10 +4279,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4886,7 +4837,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4899,26 +4850,26 @@
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -4935,7 +4886,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
@@ -4952,28 +4903,28 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>512</v>
+      <c r="D5" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>508</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5052,14 +5003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A71DED-1A7D-4276-85EC-7E1941122B27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A71DED-1A7D-4276-85EC-7E1941122B27}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5072,26 +5023,26 @@
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>510</v>
+        <v>507</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B2" s="2">
         <v>9</v>
@@ -5108,7 +5059,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B3" s="2">
         <v>28</v>
@@ -5125,28 +5076,28 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>512</v>
+      <c r="D5" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>508</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5654,7 +5605,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5662,11 +5612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160F9713-946D-4B96-B17B-71BE4C427E7B}">
   <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5681,26 +5631,26 @@
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B2" s="2">
         <v>9</v>
@@ -5711,13 +5661,13 @@
       <c r="D2" s="15">
         <v>29</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B3" s="2">
         <v>28</v>
@@ -5728,34 +5678,37 @@
       <c r="D3" s="15">
         <v>29</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -5778,7 +5731,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
@@ -5801,7 +5754,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>144</v>
       </c>
@@ -5824,7 +5777,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>243</v>
       </c>
@@ -5847,7 +5800,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>245</v>
       </c>
@@ -5870,7 +5823,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>247</v>
       </c>
@@ -5893,7 +5846,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>249</v>
       </c>
@@ -5916,7 +5869,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>251</v>
       </c>
@@ -5939,7 +5892,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>253</v>
       </c>
@@ -5962,7 +5915,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>255</v>
       </c>
@@ -5985,7 +5938,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>257</v>
       </c>
@@ -6592,10 +6545,10 @@
     </row>
     <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -6611,10 +6564,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="C44">
         <v>1000</v>
@@ -6630,10 +6583,10 @@
     </row>
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -6649,10 +6602,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="C46">
         <v>1000</v>
@@ -6668,10 +6621,10 @@
     </row>
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -6687,10 +6640,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="C48">
         <v>1000</v>
@@ -6706,10 +6659,10 @@
     </row>
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -6725,10 +6678,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="C50">
         <v>1000</v>
@@ -6836,10 +6789,10 @@
     </row>
     <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -6859,10 +6812,10 @@
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C56">
         <v>1000</v>
@@ -7058,10 +7011,10 @@
     </row>
     <row r="65" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -7077,10 +7030,10 @@
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C66">
         <v>1000</v>
@@ -7625,7 +7578,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E3"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7638,26 +7591,26 @@
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -7674,7 +7627,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B3" s="2">
         <v>32</v>
@@ -7691,28 +7644,28 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>512</v>
+      <c r="D5" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>508</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">

--- a/data/target_recipes.xlsx
+++ b/data/target_recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\projects\taxdata-psl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D961C1A6-202F-4DA8-82A0-3E3E235253B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8684F8AC-0005-4B98-A65A-C2FCE58F52D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="2" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
   </bookViews>
@@ -3875,71 +3875,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3949,12 +3890,6 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3974,11 +3909,77 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3989,7 +3990,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -13302,204 +13302,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="86" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="87" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="88" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="67" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="90" t="s">
         <v>480</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
     </row>
     <row r="4" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="76" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="80" t="s">
         <v>483</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="70" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="76" t="s">
         <v>481</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="80" t="s">
         <v>483</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="81" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="81" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="81" t="s">
+      <c r="O4" s="96"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
     </row>
     <row r="5" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="70" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="O5" s="84" t="s">
+      <c r="O5" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="P5" s="73" t="s">
+      <c r="P5" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="Q5" s="84" t="s">
+      <c r="Q5" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="R5" s="89" t="s">
+      <c r="R5" s="68" t="s">
         <v>487</v>
       </c>
-      <c r="S5" s="90"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="92" t="s">
+      <c r="S5" s="69"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="71" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="16" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="84" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="84" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="96" t="s">
+      <c r="K6" s="84"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="78" t="s">
         <v>490</v>
       </c>
-      <c r="S6" s="73" t="s">
+      <c r="S6" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="T6" s="73" t="s">
+      <c r="T6" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="U6" s="93"/>
+      <c r="U6" s="72"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -13509,27 +13509,27 @@
       <c r="AB6" s="15"/>
     </row>
     <row r="7" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="94"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="73"/>
     </row>
     <row r="8" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
@@ -17505,104 +17505,104 @@
       </c>
     </row>
     <row r="71" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="87"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="87"/>
-      <c r="S71" s="87"/>
-      <c r="T71" s="87"/>
-      <c r="U71" s="87"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+      <c r="T71" s="64"/>
+      <c r="U71" s="64"/>
     </row>
     <row r="72" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="88" t="s">
+      <c r="A72" s="63" t="s">
         <v>546</v>
       </c>
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="88"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="88"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="63"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="63"/>
+      <c r="T72" s="63"/>
+      <c r="U72" s="63"/>
     </row>
     <row r="73" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="B73" s="87"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="87"/>
-      <c r="J73" s="87"/>
-      <c r="K73" s="87"/>
-      <c r="L73" s="87"/>
-      <c r="M73" s="87"/>
-      <c r="N73" s="87"/>
-      <c r="O73" s="87"/>
-      <c r="P73" s="87"/>
-      <c r="Q73" s="87"/>
-      <c r="R73" s="87"/>
-      <c r="S73" s="87"/>
-      <c r="T73" s="87"/>
-      <c r="U73" s="87"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="64"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="64"/>
+      <c r="U73" s="64"/>
     </row>
     <row r="74" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="87"/>
-      <c r="L74" s="87"/>
-      <c r="M74" s="87"/>
-      <c r="N74" s="87"/>
-      <c r="O74" s="87"/>
-      <c r="P74" s="87"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="87"/>
-      <c r="S74" s="87"/>
-      <c r="T74" s="87"/>
-      <c r="U74" s="87"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="T74" s="64"/>
+      <c r="U74" s="64"/>
     </row>
     <row r="75" spans="1:21" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F75" s="48"/>
@@ -19135,6 +19135,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="A71:U71"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:U4"/>
     <mergeCell ref="A72:U72"/>
     <mergeCell ref="A73:U73"/>
     <mergeCell ref="A74:U74"/>
@@ -19151,25 +19170,6 @@
     <mergeCell ref="I4:J5"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="A71:U71"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:A29 A32:A49">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
@@ -19223,227 +19223,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="86" t="s">
         <v>554</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="87" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="88" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="67" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="90" t="s">
         <v>480</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
     </row>
     <row r="4" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="76" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="80" t="s">
         <v>483</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="70" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="76" t="s">
         <v>481</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="80" t="s">
         <v>483</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="97" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="97" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="97" t="s">
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="70" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="O5" s="84" t="s">
+      <c r="O5" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="P5" s="73" t="s">
+      <c r="P5" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="Q5" s="84" t="s">
+      <c r="Q5" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="R5" s="89" t="s">
+      <c r="R5" s="68" t="s">
         <v>487</v>
       </c>
-      <c r="S5" s="90"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="92" t="s">
+      <c r="S5" s="69"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="71" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="84" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="84" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="96" t="s">
+      <c r="K6" s="84"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="78" t="s">
         <v>490</v>
       </c>
-      <c r="S6" s="73" t="s">
+      <c r="S6" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="T6" s="73" t="s">
+      <c r="T6" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="U6" s="93"/>
+      <c r="U6" s="72"/>
     </row>
     <row r="7" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="94"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="73"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
@@ -23419,104 +23419,104 @@
       </c>
     </row>
     <row r="71" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="87"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="87"/>
-      <c r="S71" s="87"/>
-      <c r="T71" s="87"/>
-      <c r="U71" s="87"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+      <c r="T71" s="64"/>
+      <c r="U71" s="64"/>
     </row>
     <row r="72" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="88" t="s">
+      <c r="A72" s="63" t="s">
         <v>546</v>
       </c>
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="88"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="88"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="63"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="63"/>
+      <c r="T72" s="63"/>
+      <c r="U72" s="63"/>
     </row>
     <row r="73" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="B73" s="87"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="87"/>
-      <c r="J73" s="87"/>
-      <c r="K73" s="87"/>
-      <c r="L73" s="87"/>
-      <c r="M73" s="87"/>
-      <c r="N73" s="87"/>
-      <c r="O73" s="87"/>
-      <c r="P73" s="87"/>
-      <c r="Q73" s="87"/>
-      <c r="R73" s="87"/>
-      <c r="S73" s="87"/>
-      <c r="T73" s="87"/>
-      <c r="U73" s="87"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="64"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="64"/>
+      <c r="U73" s="64"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="87"/>
-      <c r="L74" s="87"/>
-      <c r="M74" s="87"/>
-      <c r="N74" s="87"/>
-      <c r="O74" s="87"/>
-      <c r="P74" s="87"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="87"/>
-      <c r="S74" s="87"/>
-      <c r="T74" s="87"/>
-      <c r="U74" s="87"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="T74" s="64"/>
+      <c r="U74" s="64"/>
     </row>
     <row r="75" spans="1:21" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F75" s="48"/>
@@ -25049,12 +25049,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M5:M7"/>
     <mergeCell ref="A74:U74"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="A71:U71"/>
@@ -25071,19 +25078,12 @@
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U5:U7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:A29 A32:A49">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="between">
@@ -26599,10 +26599,10 @@
   <dimension ref="E1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42:XFD43"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27607,22 +27607,22 @@
       <c r="A8" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="62">
         <v>1160</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="62">
         <v>20424594</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="62">
         <v>1160</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="62">
         <v>20424594</v>
       </c>
-      <c r="F8" s="100">
-        <v>0</v>
-      </c>
-      <c r="G8" s="100">
+      <c r="F8" s="62">
+        <v>0</v>
+      </c>
+      <c r="G8" s="62">
         <v>0</v>
       </c>
     </row>
@@ -27630,22 +27630,22 @@
       <c r="A9" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="62">
         <v>1129</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="62">
         <v>17593163</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="62">
         <v>1129</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="62">
         <v>17593163</v>
       </c>
-      <c r="F9" s="100">
-        <v>0</v>
-      </c>
-      <c r="G9" s="100">
+      <c r="F9" s="62">
+        <v>0</v>
+      </c>
+      <c r="G9" s="62">
         <v>0</v>
       </c>
     </row>
@@ -27699,22 +27699,22 @@
       <c r="A12" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="62">
         <v>1179</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="62">
         <v>86694320</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="62">
         <v>913</v>
       </c>
-      <c r="E12" s="100">
+      <c r="E12" s="62">
         <v>86695065</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="62">
         <v>266</v>
       </c>
-      <c r="G12" s="100">
+      <c r="G12" s="62">
         <v>-745</v>
       </c>
     </row>
@@ -27837,22 +27837,22 @@
       <c r="A18" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="B18" s="100">
+      <c r="B18" s="62">
         <v>1152</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C18" s="62">
         <v>12177075</v>
       </c>
-      <c r="D18" s="100">
+      <c r="D18" s="62">
         <v>679</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E18" s="62">
         <v>30421121</v>
       </c>
-      <c r="F18" s="100">
+      <c r="F18" s="62">
         <v>473</v>
       </c>
-      <c r="G18" s="100">
+      <c r="G18" s="62">
         <v>-18244046</v>
       </c>
     </row>
